--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -1166,9 +1166,19 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>070</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Itajai 10 - AGN7070D4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S208"/>
+  <dimension ref="A1:T208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>cenario</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>nova_altura</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -547,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
         <v>4.5</v>
@@ -583,7 +588,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>NAO ATENDE</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -591,7 +596,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Itajai 1 - NAO ATENDE</t>
+          <t>Itajai 1 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -648,7 +658,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>026</t>
+          <t>AGN7026D4</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -657,6 +667,11 @@
       <c r="S3" t="inlineStr">
         <is>
           <t>Itajai 2 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -713,7 +728,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>AGN7060D4</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -722,6 +737,11 @@
       <c r="S4" t="inlineStr">
         <is>
           <t>Itajai 3 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -778,7 +798,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>AGN7060D4</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -787,6 +807,11 @@
       <c r="S5" t="inlineStr">
         <is>
           <t>Itajai 4 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -843,7 +868,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>AGN7100D4</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -852,6 +877,11 @@
       <c r="S6" t="inlineStr">
         <is>
           <t>Itajai 5 - AGN7100D4</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -908,7 +938,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>090</t>
+          <t>AGN7090D4</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -917,6 +947,11 @@
       <c r="S7" t="inlineStr">
         <is>
           <t>Itajai 6 - AGN7090D4</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -973,7 +1008,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>080</t>
+          <t>AGN7080D4</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -982,6 +1017,11 @@
       <c r="S8" t="inlineStr">
         <is>
           <t>Itajai 7 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1078,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>090</t>
+          <t>AGN7090D4</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1047,6 +1087,11 @@
       <c r="S9" t="inlineStr">
         <is>
           <t>Itajai 8 - AGN7090D4</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1148,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>070</t>
+          <t>AGN7070D4</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1112,6 +1157,11 @@
       <c r="S10" t="inlineStr">
         <is>
           <t>Itajai 9 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1218,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>070</t>
+          <t>AGN7070D4</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1177,6 +1227,11 @@
       <c r="S11" t="inlineStr">
         <is>
           <t>Itajai 10 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
         </is>
       </c>
     </row>
@@ -1231,9 +1286,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Itajai 11 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1286,9 +1356,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Itajai 12 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1341,9 +1426,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Itajai 13 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1396,9 +1496,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Itajai 14 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1451,9 +1566,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Itajai 15 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1506,9 +1636,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Itajai 16 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1561,9 +1706,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Itajai 17 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1616,9 +1776,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Itajai 18 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1671,9 +1846,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Itajai 19 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1726,9 +1916,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Itajai 20 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1781,9 +1986,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Itajai 21 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1836,9 +2056,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Itajai 22 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1891,9 +2126,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Itajai 23 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1946,9 +2196,24 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>AGN7090D4</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Itajai 24 - AGN7090D4</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2001,9 +2266,24 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Itajai 25 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2056,9 +2336,24 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Itajai 26 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2111,9 +2406,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Itajai 27 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2166,9 +2476,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>AGN7055D4</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Itajai 28 - AGN7055D4</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2221,9 +2546,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Itajai 29 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2276,9 +2616,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Itajai 30 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2331,9 +2686,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Itajai 31 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2386,9 +2756,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Itajai 32 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2441,9 +2826,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Itajai 33 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2496,9 +2896,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Itajai 34 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2551,9 +2966,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Itajai 35 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2606,9 +3036,24 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Itajai 36 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2642,9 +3087,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
@@ -2657,9 +3100,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Itajai 37 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -2693,9 +3149,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
@@ -2708,9 +3162,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Itajai 38 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2744,9 +3211,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
@@ -2759,9 +3224,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Itajai 39 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2795,9 +3273,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
@@ -2810,9 +3286,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Itajai 40 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2846,9 +3335,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
@@ -2861,9 +3348,20 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Itajai 41 - AGN7030D4  - H8.0</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2897,9 +3395,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
@@ -2912,9 +3408,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>AGN7090D4</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Itajai 42 - AGN7090D4</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -2948,9 +3457,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
@@ -2963,9 +3470,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Itajai 43 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -2999,9 +3519,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
@@ -3014,9 +3532,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Itajai 44 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3050,9 +3581,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
@@ -3065,9 +3594,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Itajai 45 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3101,9 +3643,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
@@ -3116,9 +3656,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Itajai 46 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -3152,9 +3705,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
@@ -3167,9 +3718,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Itajai 47 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3203,9 +3767,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
@@ -3218,9 +3780,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Itajai 48 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -3254,9 +3829,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
@@ -3269,9 +3842,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Itajai 49 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -3305,9 +3891,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
@@ -3320,9 +3904,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Itajai 50 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -3356,9 +3953,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
@@ -3371,9 +3966,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Itajai 51 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -3407,9 +4015,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
@@ -3422,9 +4028,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Itajai 52 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -3458,9 +4077,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
@@ -3473,9 +4090,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Itajai 53 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -3509,9 +4139,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
@@ -3524,9 +4152,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Itajai 54 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -3560,9 +4201,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
@@ -3575,9 +4214,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Itajai 55 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -3611,9 +4263,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
@@ -3626,9 +4276,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Itajai 56 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3662,9 +4325,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
@@ -3677,9 +4338,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Itajai 57 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3713,9 +4387,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
@@ -3728,9 +4400,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Itajai 58 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3764,9 +4449,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
@@ -3779,9 +4462,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Itajai 59 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3815,9 +4511,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
@@ -3830,9 +4524,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Itajai 60 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -3866,9 +4573,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
@@ -3881,9 +4586,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Itajai 61 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -3917,9 +4635,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
@@ -3932,9 +4648,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Itajai 62 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -3968,9 +4697,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
@@ -3983,9 +4710,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Itajai 63 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4019,9 +4759,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
@@ -4034,9 +4772,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Itajai 64 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -4070,9 +4821,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
@@ -4085,9 +4834,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Itajai 65 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -4121,9 +4883,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
@@ -4136,9 +4896,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Itajai 66 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -4172,9 +4945,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
@@ -4187,9 +4958,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Itajai 67 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -4223,9 +5007,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
@@ -4238,9 +5020,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Itajai 68 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -4274,9 +5069,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
@@ -4289,9 +5082,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Itajai 69 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -4325,9 +5131,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
@@ -4340,9 +5144,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Itajai 70 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -4376,9 +5193,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
@@ -4391,9 +5206,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Itajai 71 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -4427,9 +5255,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
@@ -4442,9 +5268,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Itajai 72 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -4478,9 +5317,7 @@
           <t>Bilateral frontal</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
@@ -4493,9 +5330,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Itajai 73 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -4529,9 +5379,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
@@ -4544,9 +5392,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Itajai 74 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -4580,9 +5441,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
@@ -4595,9 +5454,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
       <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Itajai 75 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -4631,9 +5503,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
@@ -4646,9 +5516,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Itajai 76 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -4682,9 +5565,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
@@ -4697,9 +5578,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Itajai 77 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -4733,9 +5627,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
@@ -4748,9 +5640,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>AGN7055D4</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Itajai 78 - AGN7055D4</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -4784,9 +5689,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
@@ -4799,9 +5702,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Itajai 79 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -4835,9 +5751,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
@@ -4850,9 +5764,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Itajai 80 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -4886,9 +5813,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
@@ -4901,9 +5826,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Itajai 81 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -4937,9 +5875,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
@@ -4952,9 +5888,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Itajai 82 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -4988,9 +5937,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
@@ -5003,9 +5950,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Itajai 83 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -5039,9 +5999,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
@@ -5054,9 +6012,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Itajai 84 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -5090,9 +6061,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
@@ -5105,9 +6074,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Itajai 85 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -5141,9 +6123,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
@@ -5156,9 +6136,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Itajai 86 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -5192,9 +6185,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
@@ -5207,9 +6198,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Itajai 87 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -5243,9 +6247,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
@@ -5258,9 +6260,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Itajai 88 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -5294,9 +6309,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
@@ -5309,9 +6322,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Itajai 89 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -5345,9 +6371,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
@@ -5360,9 +6384,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Itajai 90 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -5396,9 +6433,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
@@ -5411,9 +6446,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Itajai 91 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -5447,9 +6495,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
@@ -5462,9 +6508,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Itajai 92 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -5498,9 +6557,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
@@ -5513,9 +6570,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Itajai 93 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -5549,9 +6619,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
@@ -5564,9 +6632,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Itajai 94 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -5600,9 +6681,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
@@ -5615,9 +6694,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Itajai 95 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -5651,9 +6743,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
@@ -5666,9 +6756,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Itajai 96 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -5702,9 +6805,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
@@ -5717,9 +6818,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Itajai 97 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -5753,9 +6867,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
@@ -5768,9 +6880,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Itajai 98 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -5804,9 +6929,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
@@ -5819,9 +6942,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Itajai 99 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -5855,9 +6991,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
@@ -5870,9 +7004,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Itajai 100 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -5906,9 +7053,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
@@ -5921,9 +7066,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Itajai 101 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -5957,9 +7115,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
@@ -5972,9 +7128,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Itajai 102 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -6008,9 +7177,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
@@ -6023,9 +7190,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Itajai 103 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -6059,9 +7239,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
@@ -6074,9 +7252,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Itajai 104 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -6110,9 +7301,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
@@ -6125,9 +7314,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Itajai 105 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -6161,9 +7363,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
@@ -6176,9 +7376,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Itajai 106 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -6212,9 +7425,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
@@ -6227,9 +7438,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Itajai 107 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -6263,9 +7487,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
@@ -6278,9 +7500,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Itajai 108 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -6314,9 +7549,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
@@ -6329,9 +7562,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Itajai 109 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -6365,9 +7611,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
@@ -6380,9 +7624,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Itajai 110 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -6416,9 +7673,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
@@ -6431,9 +7686,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Itajai 111 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -6467,9 +7735,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
@@ -6482,9 +7748,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Itajai 112 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -6518,9 +7797,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
@@ -6533,9 +7810,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Itajai 113 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -6569,9 +7859,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
@@ -6584,9 +7872,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Itajai 114 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -6620,9 +7921,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
@@ -6635,9 +7934,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Itajai 115 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -6671,9 +7983,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
@@ -6686,9 +7996,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Itajai 116 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -6722,9 +8045,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
@@ -6737,9 +8058,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Itajai 117 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -6773,9 +8107,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
@@ -6788,9 +8120,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Itajai 118 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -6824,9 +8169,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
@@ -6839,9 +8182,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Itajai 119 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -6875,9 +8231,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
@@ -6890,9 +8244,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Itajai 120 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -6926,9 +8293,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
@@ -6941,9 +8306,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Itajai 121 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -6977,9 +8355,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
@@ -6992,9 +8368,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Itajai 122 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -7028,9 +8417,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
@@ -7043,9 +8430,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Itajai 123 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -7079,9 +8479,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
@@ -7094,9 +8492,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>Itajai 124 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -7130,9 +8541,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
@@ -7145,9 +8554,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>Itajai 125 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -7181,9 +8603,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
@@ -7196,9 +8616,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>Itajai 126 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -7232,9 +8665,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
@@ -7247,9 +8678,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Itajai 127 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -7283,9 +8727,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
@@ -7298,9 +8740,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>Itajai 128 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -7334,9 +8789,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
@@ -7349,9 +8802,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>Itajai 129 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -7385,9 +8851,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
@@ -7400,9 +8864,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>AGN7030D4</t>
+        </is>
+      </c>
       <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Itajai 130 - AGN7030D4</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -7436,9 +8913,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
@@ -7451,9 +8926,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>Itajai 131 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -7487,9 +8975,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
@@ -7502,9 +8988,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>AGN7090D4</t>
+        </is>
+      </c>
       <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Itajai 132 - AGN7090D4</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -7538,9 +9037,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
@@ -7553,9 +9050,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>Itajai 133 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -7589,9 +9099,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
@@ -7604,9 +9112,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>AGN7090D4</t>
+        </is>
+      </c>
       <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>Itajai 134 - AGN7090D4</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -7640,9 +9161,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
@@ -7655,9 +9174,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>Itajai 135 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -7691,9 +9223,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
@@ -7706,9 +9236,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>Itajai 136 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -7742,9 +9285,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
@@ -7757,9 +9298,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>AGN7060D4</t>
+        </is>
+      </c>
       <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>Itajai 137 - AGN7060D4</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -7793,9 +9347,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
@@ -7808,9 +9360,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>Itajai 138 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -7844,9 +9409,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
@@ -7859,9 +9422,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Itajai 139 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -7895,9 +9471,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
@@ -7910,9 +9484,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>Itajai 140 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -7946,9 +9533,7 @@
           <t>Bilateral alternada</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
@@ -7961,9 +9546,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>AGN7026D4</t>
+        </is>
+      </c>
       <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Itajai 141 - AGN7026D4</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -7997,9 +9595,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
@@ -8012,9 +9608,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>Itajai 142 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -8048,9 +9657,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
@@ -8063,9 +9670,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>AGN7055D4</t>
+        </is>
+      </c>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>Itajai 143 - AGN7055D4</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -8099,9 +9719,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
@@ -8114,9 +9732,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>AGN7050D4</t>
+        </is>
+      </c>
       <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>Itajai 144 - AGN7050D4</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -8150,9 +9781,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
@@ -8165,9 +9794,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>Itajai 145 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -8201,9 +9843,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
@@ -8216,9 +9856,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Itajai 146 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -8252,9 +9905,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
@@ -8267,9 +9918,20 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>AGN7090D4</t>
+        </is>
+      </c>
       <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Itajai 147 - AGN7090D4  - H8.0</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -8303,9 +9965,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
@@ -8318,9 +9978,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Itajai 148 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -8354,9 +10027,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
@@ -8369,9 +10040,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>AGN7070D4</t>
+        </is>
+      </c>
       <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>Itajai 149 - AGN7070D4</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -8405,9 +10089,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
@@ -8420,9 +10102,22 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="Q151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>AGN7080D4</t>
+        </is>
+      </c>
       <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Itajai 150 - AGN7080D4</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -8456,9 +10151,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
@@ -8471,9 +10164,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>AGN7055D4</t>
+        </is>
+      </c>
       <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Itajai 151 - AGN7055D4</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -8507,9 +10213,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
@@ -8522,9 +10226,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>AGN7040D4</t>
+        </is>
+      </c>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Itajai 152 - AGN7040D4</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -8558,9 +10275,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
@@ -8573,9 +10288,22 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>AGN7055D4</t>
+        </is>
+      </c>
       <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Itajai 153 - AGN7055D4</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>Sem alterações</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -8609,9 +10337,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
@@ -8627,6 +10353,7 @@
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -8660,9 +10387,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
@@ -8678,6 +10403,7 @@
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -8711,9 +10437,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
@@ -8729,6 +10453,7 @@
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -8762,9 +10487,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
@@ -8780,6 +10503,7 @@
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -8813,9 +10537,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
@@ -8831,6 +10553,7 @@
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -8864,9 +10587,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
@@ -8882,6 +10603,7 @@
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -8915,9 +10637,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
@@ -8933,6 +10653,7 @@
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -8966,9 +10687,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
@@ -8984,6 +10703,7 @@
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -9017,9 +10737,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
@@ -9035,6 +10753,7 @@
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -9068,9 +10787,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
@@ -9086,6 +10803,7 @@
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -9119,9 +10837,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
@@ -9137,6 +10853,7 @@
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -9170,9 +10887,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
@@ -9188,6 +10903,7 @@
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -9221,9 +10937,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
@@ -9239,6 +10953,7 @@
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -9272,9 +10987,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
@@ -9290,6 +11003,7 @@
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -9323,9 +11037,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
@@ -9341,6 +11053,7 @@
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -9374,9 +11087,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
@@ -9392,6 +11103,7 @@
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -9425,9 +11137,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
@@ -9443,6 +11153,7 @@
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -9476,9 +11187,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
@@ -9494,6 +11203,7 @@
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -9527,9 +11237,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
@@ -9545,6 +11253,7 @@
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -9578,9 +11287,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
@@ -9596,6 +11303,7 @@
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -9629,9 +11337,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
@@ -9647,6 +11353,7 @@
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -9680,9 +11387,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
@@ -9698,6 +11403,7 @@
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -9731,9 +11437,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
@@ -9749,6 +11453,7 @@
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -9782,9 +11487,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
@@ -9800,6 +11503,7 @@
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -9833,9 +11537,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
@@ -9851,6 +11553,7 @@
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -9884,9 +11587,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
@@ -9902,6 +11603,7 @@
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -9935,9 +11637,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
@@ -9953,6 +11653,7 @@
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -9986,9 +11687,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
@@ -10004,6 +11703,7 @@
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -10037,9 +11737,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
@@ -10055,6 +11753,7 @@
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -10088,9 +11787,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
@@ -10106,6 +11803,7 @@
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -10139,9 +11837,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
@@ -10157,6 +11853,7 @@
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -10190,9 +11887,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
@@ -10208,6 +11903,7 @@
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -10241,9 +11937,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
@@ -10259,6 +11953,7 @@
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -10292,9 +11987,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
@@ -10310,6 +12003,7 @@
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -10343,9 +12037,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
@@ -10361,6 +12053,7 @@
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -10394,9 +12087,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
@@ -10412,6 +12103,7 @@
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -10445,9 +12137,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
@@ -10463,6 +12153,7 @@
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -10496,9 +12187,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
@@ -10514,6 +12203,7 @@
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -10547,9 +12237,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
@@ -10565,6 +12253,7 @@
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -10598,9 +12287,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
@@ -10616,6 +12303,7 @@
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -10649,9 +12337,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
@@ -10667,6 +12353,7 @@
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -10700,9 +12387,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
@@ -10718,6 +12403,7 @@
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -10751,9 +12437,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
@@ -10769,6 +12453,7 @@
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -10802,9 +12487,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
@@ -10820,6 +12503,7 @@
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -10853,9 +12537,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
@@ -10871,6 +12553,7 @@
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr"/>
       <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -10904,9 +12587,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
@@ -10922,6 +12603,7 @@
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="inlineStr"/>
       <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -10955,9 +12637,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
@@ -10973,6 +12653,7 @@
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -11006,9 +12687,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
@@ -11024,6 +12703,7 @@
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -11057,9 +12737,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
@@ -11075,6 +12753,7 @@
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr"/>
       <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -11108,9 +12787,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
@@ -11126,6 +12803,7 @@
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -11159,9 +12837,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
@@ -11177,6 +12853,7 @@
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -11210,9 +12887,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
@@ -11228,6 +12903,7 @@
       <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -11261,9 +12937,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
@@ -11279,6 +12953,7 @@
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -11312,9 +12987,7 @@
           <t>Unilateral</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
@@ -11330,6 +13003,7 @@
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T208"/>
+  <dimension ref="A1:U208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,40 +496,45 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>luminaria_antiga</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>larg_canteiro_central</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pendor</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>classe_via</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>classe_passeio</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>luminaria_escolhida</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>angulo_escolhido</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>cenario</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>nova_altura</t>
         </is>
@@ -574,32 +579,35 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>70</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>AGN7026D4</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>5</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Itajai 1 - AGN7026D4</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Sem alterações</t>
         </is>
@@ -644,32 +652,35 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>70</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>AGN7026D4</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>5</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Itajai 2 - AGN7026D4</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Sem alterações</t>
         </is>
@@ -714,36 +725,25 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>250</v>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Itajai 3 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -784,36 +784,25 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>150</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Itajai 4 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -854,36 +843,25 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>250</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>AGN7100D4</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Itajai 5 - AGN7100D4</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -924,36 +902,25 @@
       <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>250</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Itajai 6 - AGN7090D4</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -994,36 +961,25 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>250</v>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Itajai 7 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1064,36 +1020,25 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>250</v>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Itajai 8 - AGN7090D4</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1134,36 +1079,25 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>150</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Itajai 9 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1204,36 +1138,25 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>150</v>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Itajai 10 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1274,36 +1197,25 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>150</v>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Itajai 11 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1344,36 +1256,25 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>150</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Itajai 12 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1414,36 +1315,25 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>150</v>
+      </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Itajai 13 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1484,36 +1374,25 @@
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>150</v>
+      </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Itajai 14 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1554,36 +1433,25 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>150</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Itajai 15 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1624,36 +1492,25 @@
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>150</v>
+      </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Itajai 16 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1694,36 +1551,25 @@
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>150</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Itajai 17 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1764,36 +1610,25 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>150</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Itajai 18 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1834,36 +1669,25 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>130</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Itajai 19 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1904,36 +1728,25 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>150</v>
+      </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Itajai 20 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1974,36 +1787,25 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>150</v>
+      </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Itajai 21 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2044,36 +1846,25 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>150</v>
+      </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Itajai 22 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2114,36 +1905,25 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>150</v>
+      </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Itajai 23 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2184,36 +1964,25 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>150</v>
+      </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Itajai 24 - AGN7090D4</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2254,36 +2023,25 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>150</v>
+      </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Itajai 25 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2324,36 +2082,25 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>70</v>
+      </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Itajai 26 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2394,36 +2141,25 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>150</v>
+      </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Itajai 27 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2464,36 +2200,25 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>150</v>
+      </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>AGN7055D4</t>
-        </is>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Itajai 28 - AGN7055D4</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2534,36 +2259,25 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>150</v>
+      </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Itajai 29 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2604,36 +2318,25 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>150</v>
+      </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Itajai 30 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2674,36 +2377,25 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>150</v>
+      </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Itajai 31 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2744,36 +2436,25 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>150</v>
+      </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Itajai 32 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2814,36 +2495,25 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>150</v>
+      </c>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Itajai 33 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2884,36 +2554,25 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>150</v>
+      </c>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Itajai 34 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2954,36 +2613,25 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>150</v>
+      </c>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Itajai 35 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3024,36 +2672,25 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>150</v>
+      </c>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Itajai 36 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -3088,34 +2725,25 @@
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>150</v>
+      </c>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Itajai 37 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -3150,34 +2778,25 @@
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>70</v>
+      </c>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Itajai 38 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -3212,34 +2831,25 @@
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>150</v>
+      </c>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Itajai 39 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -3274,34 +2884,25 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>100</v>
+      </c>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>AGN7070D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Itajai 40 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -3336,32 +2937,25 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>70</v>
+      </c>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>AGN7030D4</t>
-        </is>
-      </c>
       <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Itajai 41 - AGN7030D4  - H8.0</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>8</v>
-      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -3396,34 +2990,25 @@
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>70</v>
+      </c>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Itajai 42 - AGN7090D4</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3458,34 +3043,25 @@
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>150</v>
+      </c>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Itajai 43 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3520,34 +3096,25 @@
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>70</v>
+      </c>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Itajai 44 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3582,34 +3149,25 @@
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>150</v>
+      </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Itajai 45 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3644,34 +3202,25 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>70</v>
+      </c>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
       <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Itajai 46 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -3706,34 +3255,25 @@
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>250</v>
+      </c>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Itajai 47 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3768,34 +3308,25 @@
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>70</v>
+      </c>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Itajai 48 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -3830,34 +3361,25 @@
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>250</v>
+      </c>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>AGN7030D4</t>
-        </is>
-      </c>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Itajai 49 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -3892,34 +3414,25 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>250</v>
+      </c>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Itajai 50 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -3954,34 +3467,25 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>70</v>
+      </c>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr">
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Itajai 51 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -4016,34 +3520,25 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>150</v>
+      </c>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr">
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Itajai 52 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -4078,34 +3573,25 @@
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>250</v>
+      </c>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr">
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Itajai 53 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -4140,34 +3626,25 @@
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>150</v>
+      </c>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr">
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Itajai 54 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -4202,34 +3679,25 @@
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>150</v>
+      </c>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr">
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Itajai 55 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -4264,34 +3732,25 @@
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>150</v>
+      </c>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Itajai 56 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -4326,34 +3785,25 @@
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>150</v>
+      </c>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
       <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Itajai 57 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -4388,34 +3838,25 @@
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>250</v>
+      </c>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
       <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Itajai 58 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -4450,34 +3891,25 @@
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>150</v>
+      </c>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr">
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Itajai 59 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -4512,34 +3944,25 @@
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>150</v>
+      </c>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Itajai 60 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -4574,34 +3997,25 @@
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>150</v>
+      </c>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr">
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Itajai 61 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -4636,34 +4050,25 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>150</v>
+      </c>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr">
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Itajai 62 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -4698,34 +4103,25 @@
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>150</v>
+      </c>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr">
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Itajai 63 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4760,34 +4156,25 @@
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>150</v>
+      </c>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr">
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Itajai 64 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -4822,34 +4209,25 @@
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>150</v>
+      </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr">
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Itajai 65 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -4884,34 +4262,25 @@
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>150</v>
+      </c>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr">
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Itajai 66 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -4946,34 +4315,25 @@
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>150</v>
+      </c>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Itajai 67 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -5008,34 +4368,25 @@
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>150</v>
+      </c>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr">
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>Itajai 68 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -5070,34 +4421,25 @@
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>150</v>
+      </c>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr">
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Itajai 69 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -5132,34 +4474,25 @@
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>150</v>
+      </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr">
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>Itajai 70 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -5194,34 +4527,25 @@
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>150</v>
+      </c>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr">
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>Itajai 71 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -5256,34 +4580,25 @@
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>150</v>
+      </c>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr">
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>Itajai 72 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -5318,34 +4633,25 @@
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>150</v>
+      </c>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr">
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>Itajai 73 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -5380,34 +4686,25 @@
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>150</v>
+      </c>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr">
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Itajai 74 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -5442,34 +4739,25 @@
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>150</v>
+      </c>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr">
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>Itajai 75 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -5504,34 +4792,25 @@
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>150</v>
+      </c>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr">
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>Itajai 76 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -5566,34 +4845,25 @@
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>70</v>
+      </c>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr">
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
       <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>Itajai 77 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -5628,34 +4898,25 @@
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>70</v>
+      </c>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr">
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>AGN7055D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Itajai 78 - AGN7055D4</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -5690,34 +4951,25 @@
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>70</v>
+      </c>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr">
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Itajai 79 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -5752,34 +5004,25 @@
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>70</v>
+      </c>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr">
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>Itajai 80 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -5814,34 +5057,25 @@
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>150</v>
+      </c>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr">
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Itajai 81 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -5876,34 +5110,25 @@
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>150</v>
+      </c>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr">
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Itajai 82 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -5938,34 +5163,25 @@
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>250</v>
+      </c>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr">
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>Itajai 83 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -6000,34 +5216,25 @@
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>250</v>
+      </c>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
       <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>Itajai 84 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -6062,34 +5269,25 @@
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>400</v>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr">
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>Itajai 85 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -6124,34 +5322,25 @@
         </is>
       </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>150</v>
+      </c>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr">
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
       <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>Itajai 86 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -6186,34 +5375,25 @@
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>250</v>
+      </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>Itajai 87 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -6248,34 +5428,25 @@
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>250</v>
+      </c>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr">
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>Itajai 88 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -6310,34 +5481,25 @@
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>150</v>
+      </c>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr">
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>Itajai 89 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -6372,34 +5534,25 @@
         </is>
       </c>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>150</v>
+      </c>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr">
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>Itajai 90 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -6434,34 +5587,25 @@
         </is>
       </c>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>150</v>
+      </c>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr">
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>Itajai 91 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -6496,34 +5640,25 @@
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>70</v>
+      </c>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr">
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>Itajai 92 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -6558,34 +5693,25 @@
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>150</v>
+      </c>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr">
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>Itajai 93 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -6620,34 +5746,25 @@
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>150</v>
+      </c>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr">
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Itajai 94 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -6682,34 +5799,25 @@
         </is>
       </c>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>150</v>
+      </c>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr">
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Itajai 95 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -6744,34 +5852,25 @@
         </is>
       </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>150</v>
+      </c>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr">
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>Itajai 96 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -6806,34 +5905,25 @@
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>400</v>
+      </c>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr">
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>Itajai 97 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -6868,34 +5958,25 @@
         </is>
       </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>150</v>
+      </c>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr">
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>Itajai 98 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -6930,34 +6011,25 @@
         </is>
       </c>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>150</v>
+      </c>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr">
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>Itajai 99 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -6992,34 +6064,25 @@
         </is>
       </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>250</v>
+      </c>
       <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr">
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>Itajai 100 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -7054,34 +6117,25 @@
         </is>
       </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>150</v>
+      </c>
       <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr">
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>Itajai 101 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -7116,34 +6170,25 @@
         </is>
       </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>150</v>
+      </c>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr">
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>Itajai 102 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -7178,34 +6223,25 @@
         </is>
       </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>250</v>
+      </c>
       <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr">
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>Itajai 103 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -7240,34 +6276,25 @@
         </is>
       </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>150</v>
+      </c>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr">
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>Itajai 104 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -7302,34 +6329,25 @@
         </is>
       </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>150</v>
+      </c>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr">
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>Itajai 105 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -7364,34 +6382,25 @@
         </is>
       </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>150</v>
+      </c>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr">
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>Itajai 106 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -7426,34 +6435,25 @@
         </is>
       </c>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>150</v>
+      </c>
       <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr">
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>Itajai 107 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -7488,34 +6488,25 @@
         </is>
       </c>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>150</v>
+      </c>
       <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr">
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>Itajai 108 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -7550,34 +6541,25 @@
         </is>
       </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>150</v>
+      </c>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr">
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>Itajai 109 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -7612,34 +6594,25 @@
         </is>
       </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>150</v>
+      </c>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr">
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>Itajai 110 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -7674,34 +6647,25 @@
         </is>
       </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>150</v>
+      </c>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr">
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>Itajai 111 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -7736,34 +6700,25 @@
         </is>
       </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>150</v>
+      </c>
       <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr">
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>Itajai 112 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -7798,34 +6753,25 @@
         </is>
       </c>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>150</v>
+      </c>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr">
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>Itajai 113 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -7860,34 +6806,25 @@
         </is>
       </c>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>150</v>
+      </c>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr">
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>Itajai 114 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -7922,34 +6859,25 @@
         </is>
       </c>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>150</v>
+      </c>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr">
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>Itajai 115 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -7984,34 +6912,25 @@
         </is>
       </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>150</v>
+      </c>
       <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr">
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>Itajai 116 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -8046,34 +6965,25 @@
         </is>
       </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>150</v>
+      </c>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr">
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>Itajai 117 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -8108,34 +7018,25 @@
         </is>
       </c>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>150</v>
+      </c>
       <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr">
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>Itajai 118 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -8170,34 +7071,25 @@
         </is>
       </c>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>150</v>
+      </c>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr">
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>Itajai 119 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -8232,34 +7124,25 @@
         </is>
       </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>150</v>
+      </c>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr">
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>Itajai 120 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -8294,34 +7177,25 @@
         </is>
       </c>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>150</v>
+      </c>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr">
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>Itajai 121 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -8356,34 +7230,25 @@
         </is>
       </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>150</v>
+      </c>
       <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr">
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>Itajai 122 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -8418,34 +7283,25 @@
         </is>
       </c>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>150</v>
+      </c>
       <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr">
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>Itajai 123 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -8480,34 +7336,25 @@
         </is>
       </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>150</v>
+      </c>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr">
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>Itajai 124 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -8542,34 +7389,25 @@
         </is>
       </c>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>250</v>
+      </c>
       <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr">
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>Itajai 125 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -8604,34 +7442,25 @@
         </is>
       </c>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>150</v>
+      </c>
       <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr">
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>Itajai 126 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -8666,34 +7495,25 @@
         </is>
       </c>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>150</v>
+      </c>
       <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr">
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>Itajai 127 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -8728,34 +7548,25 @@
         </is>
       </c>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>150</v>
+      </c>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr">
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>Itajai 128 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -8790,34 +7601,25 @@
         </is>
       </c>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>150</v>
+      </c>
       <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr">
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>Itajai 129 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -8852,34 +7654,25 @@
         </is>
       </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>250</v>
+      </c>
       <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr">
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>AGN7030D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>Itajai 130 - AGN7030D4</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -8914,34 +7707,25 @@
         </is>
       </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>150</v>
+      </c>
       <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr">
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>Itajai 131 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -8976,34 +7760,25 @@
         </is>
       </c>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>150</v>
+      </c>
       <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr">
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P133" t="inlineStr">
+      <c r="Q133" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
       <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>Itajai 132 - AGN7090D4</t>
-        </is>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -9038,34 +7813,25 @@
         </is>
       </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>150</v>
+      </c>
       <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr">
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P134" t="inlineStr">
+      <c r="Q134" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>Itajai 133 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -9100,34 +7866,25 @@
         </is>
       </c>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>150</v>
+      </c>
       <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr">
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P135" t="inlineStr">
+      <c r="Q135" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
       <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>Itajai 134 - AGN7090D4</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -9162,34 +7919,25 @@
         </is>
       </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>150</v>
+      </c>
       <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr">
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P136" t="inlineStr">
+      <c r="Q136" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>Itajai 135 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -9224,34 +7972,25 @@
         </is>
       </c>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>150</v>
+      </c>
       <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr">
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr">
         <is>
           <t>V3</t>
         </is>
       </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>Itajai 136 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -9286,34 +8025,25 @@
         </is>
       </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>150</v>
+      </c>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr">
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P138" t="inlineStr">
+      <c r="Q138" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>AGN7060D4</t>
-        </is>
-      </c>
       <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>Itajai 137 - AGN7060D4</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -9350,32 +8080,21 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr">
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P139" t="inlineStr">
+      <c r="Q139" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>Itajai 138 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -9412,32 +8131,21 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr">
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P140" t="inlineStr">
+      <c r="Q140" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>Itajai 139 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -9474,32 +8182,21 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr">
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr">
+      <c r="Q141" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
       <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>Itajai 140 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -9536,32 +8233,21 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr">
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P142" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
       <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>Itajai 141 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -9598,32 +8284,21 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr">
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>AGN7070D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>Itajai 142 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -9660,32 +8335,21 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr">
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>AGN7055D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>Itajai 143 - AGN7055D4</t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -9722,32 +8386,21 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr">
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>AGN7050D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>Itajai 144 - AGN7050D4</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -9784,32 +8437,21 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr">
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr">
+      <c r="Q146" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>Itajai 145 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -9846,32 +8488,21 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr">
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr">
+      <c r="Q147" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
       <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>Itajai 146 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -9908,30 +8539,21 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr">
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P148" t="inlineStr">
+      <c r="Q148" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>AGN7090D4</t>
-        </is>
-      </c>
       <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>Itajai 147 - AGN7090D4  - H8.0</t>
-        </is>
-      </c>
-      <c r="T148" t="n">
-        <v>8</v>
-      </c>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -9968,32 +8590,21 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr">
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P149" t="inlineStr">
+      <c r="Q149" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>Itajai 148 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -10030,32 +8641,21 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr">
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P150" t="inlineStr">
+      <c r="Q150" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>AGN7070D4</t>
-        </is>
-      </c>
       <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>Itajai 149 - AGN7070D4</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -10092,32 +8692,21 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr">
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr">
+      <c r="Q151" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>AGN7080D4</t>
-        </is>
-      </c>
       <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>Itajai 150 - AGN7080D4</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -10154,32 +8743,21 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr">
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>AGN7055D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>Itajai 151 - AGN7055D4</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -10216,32 +8794,21 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr">
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>AGN7040D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>Itajai 152 - AGN7040D4</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -10278,32 +8845,21 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr">
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>AGN7055D4</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>Itajai 153 - AGN7055D4</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -10340,20 +8896,21 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr">
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -10390,20 +8947,21 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr">
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -10440,20 +8998,21 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr">
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -10490,20 +9049,21 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr">
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -10540,20 +9100,21 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr">
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -10590,20 +9151,21 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr">
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -10640,20 +9202,21 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr">
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P161" t="inlineStr">
+      <c r="Q161" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -10690,20 +9253,21 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr">
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P162" t="inlineStr">
+      <c r="Q162" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -10740,20 +9304,21 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr">
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P163" t="inlineStr">
+      <c r="Q163" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -10790,20 +9355,21 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr">
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P164" t="inlineStr">
+      <c r="Q164" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -10840,20 +9406,21 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr">
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P165" t="inlineStr">
+      <c r="Q165" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -10890,20 +9457,21 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr">
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P166" t="inlineStr">
+      <c r="Q166" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -10940,20 +9508,21 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr">
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P167" t="inlineStr">
+      <c r="Q167" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -10990,20 +9559,21 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr">
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P168" t="inlineStr">
+      <c r="Q168" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -11040,20 +9610,21 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr">
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P169" t="inlineStr">
+      <c r="Q169" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -11090,20 +9661,21 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr">
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P170" t="inlineStr">
+      <c r="Q170" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -11140,20 +9712,21 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr">
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
         <is>
           <t>V2</t>
         </is>
       </c>
-      <c r="P171" t="inlineStr">
+      <c r="Q171" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -11190,20 +9763,21 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr">
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -11240,20 +9814,21 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr">
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -11290,20 +9865,21 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr">
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -11340,20 +9916,21 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr">
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -11390,20 +9967,21 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr">
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -11440,20 +10018,21 @@
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
-      <c r="O177" t="inlineStr">
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -11490,20 +10069,21 @@
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
-      <c r="O178" t="inlineStr">
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -11540,20 +10120,21 @@
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr">
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -11590,20 +10171,21 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr">
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -11640,20 +10222,21 @@
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr">
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -11690,20 +10273,21 @@
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr">
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -11740,20 +10324,21 @@
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr">
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -11790,20 +10375,21 @@
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr">
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -11840,20 +10426,21 @@
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr">
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -11890,20 +10477,21 @@
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr">
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -11940,20 +10528,21 @@
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr">
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -11990,20 +10579,21 @@
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr">
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -12040,20 +10630,21 @@
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr">
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -12090,20 +10681,21 @@
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr">
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -12140,20 +10732,21 @@
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr">
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -12190,20 +10783,21 @@
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr">
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -12240,20 +10834,21 @@
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr">
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -12290,20 +10885,21 @@
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr">
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -12340,20 +10936,21 @@
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr">
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -12390,20 +10987,21 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr">
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -12440,20 +11038,21 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr">
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -12490,20 +11089,21 @@
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr">
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P198" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -12540,20 +11140,21 @@
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr">
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P199" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R199" t="inlineStr"/>
       <c r="S199" t="inlineStr"/>
       <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -12590,20 +11191,21 @@
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr"/>
-      <c r="O200" t="inlineStr">
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R200" t="inlineStr"/>
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -12640,20 +11242,21 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr">
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -12690,20 +11293,21 @@
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr">
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -12740,20 +11344,21 @@
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr">
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R203" t="inlineStr"/>
       <c r="S203" t="inlineStr"/>
       <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -12790,20 +11395,21 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr">
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -12840,20 +11446,21 @@
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr">
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P205" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -12890,20 +11497,21 @@
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr">
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P206" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -12940,20 +11548,21 @@
       <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr">
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P207" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -12990,20 +11599,21 @@
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr">
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr">
         <is>
           <t>V4</t>
         </is>
       </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="Q208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
         <v>4.5</v>
@@ -573,7 +573,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bilateral alternada</t>
+          <t>Unilateral</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>AGN7026D4</t>
+          <t>AGN7070D4</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -604,13 +604,11 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Itajai 1 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
+          <t>Itajai 1 - AGN7070D4  - H7.0 - BR2.0</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -667,24 +665,10 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>AGN7026D4</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Itajai 2 - AGN7026D4</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Sem alterações</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">

--- a/table_itajai_test_atualizada.xlsx
+++ b/table_itajai_test_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U208"/>
+  <dimension ref="A1:V208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,11 @@
           <t>nova_altura</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>novo_braco</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,11 +609,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Itajai 1 - AGN7070D4  - H7.0 - BR2.0</t>
+          <t>Itajai 1 - AGN7070D4  - H7.0 - BR2.5</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>7</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -669,6 +677,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +797,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -846,6 +857,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -905,6 +917,7 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -964,6 +977,7 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1023,6 +1037,7 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1097,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1141,6 +1157,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1200,6 +1217,7 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1259,6 +1277,7 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1318,6 +1337,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1377,6 +1397,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1436,6 +1457,7 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1495,6 +1517,7 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1554,6 +1577,7 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1613,6 +1637,7 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1672,6 +1697,7 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1731,6 +1757,7 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1790,6 +1817,7 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1849,6 +1877,7 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1908,6 +1937,7 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1967,6 +1997,7 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2026,6 +2057,7 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2085,6 +2117,7 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2144,6 +2177,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2203,6 +2237,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2262,6 +2297,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2321,6 +2357,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2380,6 +2417,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2439,6 +2477,7 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2498,6 +2537,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2557,6 +2597,7 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2616,6 +2657,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2675,6 +2717,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2728,6 +2771,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -2781,6 +2825,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2834,6 +2879,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2887,6 +2933,7 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2940,6 +2987,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2993,6 +3041,7 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3046,6 +3095,7 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3099,6 +3149,7 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3152,6 +3203,7 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3205,6 +3257,7 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -3258,6 +3311,7 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3311,6 +3365,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -3364,6 +3419,7 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -3417,6 +3473,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -3470,6 +3527,7 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -3523,6 +3581,7 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -3576,6 +3635,7 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -3629,6 +3689,7 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -3682,6 +3743,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -3735,6 +3797,7 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3788,6 +3851,7 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3841,6 +3905,7 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3894,6 +3959,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3947,6 +4013,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -4000,6 +4067,7 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -4053,6 +4121,7 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -4106,6 +4175,7 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4159,6 +4229,7 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -4212,6 +4283,7 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -4265,6 +4337,7 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -4318,6 +4391,7 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -4371,6 +4445,7 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -4424,6 +4499,7 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -4477,6 +4553,7 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -4530,6 +4607,7 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -4583,6 +4661,7 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -4636,6 +4715,7 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -4689,6 +4769,7 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -4742,6 +4823,7 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -4795,6 +4877,7 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -4848,6 +4931,7 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -4901,6 +4985,7 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -4954,6 +5039,7 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -5007,6 +5093,7 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -5060,6 +5147,7 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -5113,6 +5201,7 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -5166,6 +5255,7 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -5219,6 +5309,7 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -5272,6 +5363,7 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -5325,6 +5417,7 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -5378,6 +5471,7 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -5431,6 +5525,7 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -5484,6 +5579,7 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -5537,6 +5633,7 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -5590,6 +5687,7 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -5643,6 +5741,7 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -5696,6 +5795,7 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -5749,6 +5849,7 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -5802,6 +5903,7 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -5855,6 +5957,7 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -5908,6 +6011,7 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -5961,6 +6065,7 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -6014,6 +6119,7 @@
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -6067,6 +6173,7 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -6120,6 +6227,7 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -6173,6 +6281,7 @@
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -6226,6 +6335,7 @@
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -6279,6 +6389,7 @@
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -6332,6 +6443,7 @@
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -6385,6 +6497,7 @@
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -6438,6 +6551,7 @@
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -6491,6 +6605,7 @@
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -6544,6 +6659,7 @@
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -6597,6 +6713,7 @@
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -6650,6 +6767,7 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -6703,6 +6821,7 @@
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -6756,6 +6875,7 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -6809,6 +6929,7 @@
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -6862,6 +6983,7 @@
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -6915,6 +7037,7 @@
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -6968,6 +7091,7 @@
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -7021,6 +7145,7 @@
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -7074,6 +7199,7 @@
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -7127,6 +7253,7 @@
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -7180,6 +7307,7 @@
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -7233,6 +7361,7 @@
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -7286,6 +7415,7 @@
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -7339,6 +7469,7 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -7392,6 +7523,7 @@
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -7445,6 +7577,7 @@
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -7498,6 +7631,7 @@
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -7551,6 +7685,7 @@
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -7604,6 +7739,7 @@
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -7657,6 +7793,7 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -7710,6 +7847,7 @@
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -7763,6 +7901,7 @@
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -7816,6 +7955,7 @@
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -7869,6 +8009,7 @@
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -7922,6 +8063,7 @@
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -7975,6 +8117,7 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -8028,6 +8171,7 @@
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -8079,6 +8223,7 @@
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -8130,6 +8275,7 @@
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -8181,6 +8327,7 @@
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -8232,6 +8379,7 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -8283,6 +8431,7 @@
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -8334,6 +8483,7 @@
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -8385,6 +8535,7 @@
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -8436,6 +8587,7 @@
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -8487,6 +8639,7 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -8538,6 +8691,7 @@
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -8589,6 +8743,7 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -8640,6 +8795,7 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -8691,6 +8847,7 @@
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -8742,6 +8899,7 @@
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -8793,6 +8951,7 @@
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -8844,6 +9003,7 @@
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -8895,6 +9055,7 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -8946,6 +9107,7 @@
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -8997,6 +9159,7 @@
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -9048,6 +9211,7 @@
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -9099,6 +9263,7 @@
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -9150,6 +9315,7 @@
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -9201,6 +9367,7 @@
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -9252,6 +9419,7 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -9303,6 +9471,7 @@
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -9354,6 +9523,7 @@
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -9405,6 +9575,7 @@
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -9456,6 +9627,7 @@
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -9507,6 +9679,7 @@
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -9558,6 +9731,7 @@
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -9609,6 +9783,7 @@
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -9660,6 +9835,7 @@
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -9711,6 +9887,7 @@
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -9762,6 +9939,7 @@
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -9813,6 +9991,7 @@
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -9864,6 +10043,7 @@
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -9915,6 +10095,7 @@
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -9966,6 +10147,7 @@
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -10017,6 +10199,7 @@
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -10068,6 +10251,7 @@
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -10119,6 +10303,7 @@
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -10170,6 +10355,7 @@
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -10221,6 +10407,7 @@
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -10272,6 +10459,7 @@
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -10323,6 +10511,7 @@
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -10374,6 +10563,7 @@
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -10425,6 +10615,7 @@
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -10476,6 +10667,7 @@
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -10527,6 +10719,7 @@
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -10578,6 +10771,7 @@
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -10629,6 +10823,7 @@
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -10680,6 +10875,7 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -10731,6 +10927,7 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -10782,6 +10979,7 @@
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -10833,6 +11031,7 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -10884,6 +11083,7 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -10935,6 +11135,7 @@
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -10986,6 +11187,7 @@
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -11037,6 +11239,7 @@
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -11088,6 +11291,7 @@
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -11139,6 +11343,7 @@
       <c r="S199" t="inlineStr"/>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -11190,6 +11395,7 @@
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -11241,6 +11447,7 @@
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -11292,6 +11499,7 @@
       <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -11343,6 +11551,7 @@
       <c r="S203" t="inlineStr"/>
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -11394,6 +11603,7 @@
       <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -11445,6 +11655,7 @@
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -11496,6 +11707,7 @@
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -11547,6 +11759,7 @@
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -11598,6 +11811,7 @@
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
